--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Esophageal squamous cell carcinoma_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Esophageal squamous cell carcinoma_spec_overall.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hpi" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia, particularly for solids, is a common symptom of esophageal squamous cell carcinoma due to obstruction or narrowing of the esophagus.</t>
+          <t>Progressive dysphagia, especially for solids, is a classic symptom of esophageal squamous cell carcinoma due to tumor growth causing obstruction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate involvement of the recurrent laryngeal nerve or other structures by a tumor, and its absence makes esophageal cancer less likely.</t>
+          <t>Raynaud's phenomenon is more commonly associated with connective tissue disorders rather than esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -488,83 +488,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unintentional weight loss is often associated with malignancies, including esophageal squamous cell carcinoma, as patients may avoid eating due to pain or difficulty swallowing.</t>
+          <t>Unintentional weight loss is a common symptom in esophageal cancer due to difficulty eating and increased metabolic demands of the tumor.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A persistent cough can be associated with esophageal cancer, especially if there is aspiration or lung involvement; its absence suggests a lower likelihood of the disease.</t>
+          <t>Telangiectasias are typically associated with conditions like scleroderma, not esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The failure of antacids to alleviate symptoms may indicate a more serious underlying condition such as esophageal cancer rather than simple gastroesophageal reflux disease.</t>
+          <t>Odynophagia can occur in esophageal cancer due to ulceration or tumor invasion into surrounding tissues.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Shortness of breath is absent.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shortness of breath can indicate advanced disease or lung involvement; its absence supports a lower likelihood of esophageal squamous cell carcinoma.</t>
+          <t>This symptom is more indicative of rheumatologic conditions rather than esophageal cancer.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Pain worse when lying down (positional) is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Odynophagia can be a symptom of esophageal cancer, indicating inflammation or obstruction in the esophagus.</t>
+          <t>Positional pain can be associated with esophageal cancer due to changes in pressure on the tumor or reflux exacerbated by lying down.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nausea and/or vomiting is absent.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nausea and vomiting can occur with esophageal cancer due to obstruction or other complications; their absence suggests a lower likelihood of the diagnosis.</t>
+          <t>Pain relief with regurgitation is more characteristic of esophageal motility disorders or GERD rather than cancer.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Current reflux is present.</t>
+          <t>Onset of chest pain associated with eating food is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronic gastroesophageal reflux can be a risk factor for the development of esophageal squamous cell carcinoma, making its presence relevant.</t>
+          <t>Chest pain associated with eating can indicate esophageal obstruction or irritation from a tumor.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Intermittent temporal pattern (not constant) of symptoms is absent.</t>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A constant pattern of symptoms is more suggestive of malignancy; the absence of an intermittent pattern may indicate a less serious condition.</t>
+          <t>Non-progressive dysphagia is less typical of esophageal cancer, which usually presents with progressive symptoms.</t>
         </is>
       </c>
     </row>
@@ -612,110 +612,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esophageal squamous cell carcinoma has a higher incidence in females, particularly in certain populations.</t>
+          <t>Middle age is a risk factor for esophageal squamous cell carcinoma, as the incidence increases with age.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>Alcohol use disorder is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation exposure is a known risk factor for esophageal squamous cell carcinoma; its absence is strong evidence against the diagnosis.</t>
+          <t>Alcohol use is a significant risk factor for esophageal squamous cell carcinoma, so its absence reduces the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The risk of esophageal squamous cell carcinoma increases with age, particularly in middle-aged individuals.</t>
+          <t>While esophageal squamous cell carcinoma is more common in males, the presence of being female does not strongly argue against the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of prior myocardial infarction</t>
+          <t>Nicotine dependence is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cardiovascular diseases can be associated with increased cancer risk; absence of such conditions may suggest a lower risk profile.</t>
+          <t>Tobacco use is a major risk factor for esophageal squamous cell carcinoma, so its absence reduces the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>takes amlodipine is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, certain cardiovascular medications may be associated with increased cancer risk due to underlying conditions.</t>
+          <t>Amlodipine use is not directly related to esophageal squamous cell carcinoma, but its presence does not exclude the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Obesity is a significant risk factor for many cancers, including esophageal squamous cell carcinoma; its absence supports a lower likelihood of the diagnosis.</t>
+          <t>Prior radiation treatment is a risk factor for esophageal cancer, so its absence reduces the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>Environmental allergies is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While alcohol use is a risk factor, its absence does not negate the possibility of esophageal squamous cell carcinoma, but it is less supportive of the diagnosis.</t>
+          <t>The absence of environmental allergies does not strongly impact the likelihood of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>obesity is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hypertension can be associated with increased cancer risk; its absence may indicate a lower risk for esophageal squamous cell carcinoma.</t>
+          <t>Obesity is a risk factor for esophageal cancer, so its absence reduces the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Asthma is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to alcohol, while nicotine is a significant risk factor, its absence does not rule out the diagnosis.</t>
+          <t>The absence of asthma does not strongly impact the likelihood of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies</t>
+          <t>type 2 diabetes is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While not directly related, the absence of allergies may suggest a different health profile that is less associated with esophageal squamous cell carcinoma.</t>
+          <t>Type 2 diabetes is associated with an increased risk of esophageal cancer, so its absence reduces the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tobacco use is a significant risk factor for Esophageal squamous cell carcinoma, as it is associated with increased likelihood of developing this type of cancer.</t>
+          <t>Prior tobacco use is a known risk factor for esophageal squamous cell carcinoma, increasing the likelihood of the disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol consumption is a known risk factor for Esophageal squamous cell carcinoma; its absence significantly lowers the likelihood of this diagnosis.</t>
+          <t>Alcohol use is a significant risk factor for esophageal squamous cell carcinoma, so its absence decreases the likelihood of the disease.</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Social stress can contribute to behaviors that increase cancer risk, including potential neglect of health and increased substance use, which may indirectly support the development of Esophageal squamous cell carcinoma.</t>
+          <t>While not a direct risk factor, stress can contribute to behaviors that increase cancer risk, such as poor diet or alcohol use, indirectly supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is a strong risk factor for Esophageal squamous cell carcinoma; its absence further reduces the likelihood of this diagnosis.</t>
+          <t>Current tobacco use is a strong risk factor for esophageal squamous cell carcinoma, so its absence decreases the likelihood of the disease.</t>
         </is>
       </c>
     </row>
@@ -812,17 +812,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, a family history of cardiovascular issues may suggest a genetic predisposition to health problems, which could include cancer susceptibility.</t>
+          <t>Although not directly related to esophageal squamous cell carcinoma, a family history of cardiovascular issues may indicate shared lifestyle risk factors.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Certain geographical areas have higher incidences of Esophageal squamous cell carcinoma; the absence of recent travel may suggest a lower risk exposure.</t>
+          <t>A family history of cancer can increase the risk of esophageal squamous cell carcinoma, so its absence decreases the likelihood of the disease.</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of autoimmune diseases like Rheumatoid Arthritis may suggest a lower overall risk profile for certain cancers, but does not directly support the diagnosis.</t>
+          <t>The absence of autoimmune conditions like rheumatoid arthritis does not directly impact the likelihood of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -844,19 +844,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Certain medical procedures can increase the risk of complications that may lead to cancer; the absence of such procedures suggests a lower risk profile.</t>
+          <t>The absence of recent medical procedures does not directly impact the likelihood of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer generally suggests a lower risk for developing malignancies, including Esophageal squamous cell carcinoma.</t>
+          <t>The absence of recent travel does not directly impact the likelihood of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may indicate a generally healthier reproductive history, which can correlate with lower cancer risk.</t>
+          <t>The absence of gestational complications does not directly impact the likelihood of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -914,110 +914,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss is a common symptom in patients with Esophageal squamous cell carcinoma due to difficulty swallowing and decreased appetite.</t>
+          <t>Hyperlipidemia is not directly associated with esophageal squamous cell carcinoma, but it is a common finding in the general population and does not strongly favor or disfavor the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon on exam is absent.</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that there is no underlying connective tissue disease, which can sometimes be associated with esophageal symptoms but is not directly linked to Esophageal squamous cell carcinoma.</t>
+          <t>A widened mediastinum could suggest advanced esophageal cancer with mediastinal involvement, so its absence argues against advanced disease.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with various malignancies, including Esophageal squamous cell carcinoma, indicating possible paraneoplastic syndromes.</t>
+          <t>The absence of a strong positive ANA does not directly relate to esophageal squamous cell carcinoma, as ANA is more related to autoimmune conditions.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice is a strong indicator against Esophageal squamous cell carcinoma, as this symptom is often present when the tumor affects the recurrent laryngeal nerve.</t>
+          <t>While ILD is not directly related to esophageal squamous cell carcinoma, its absence does not provide evidence for the cancer.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While cough can be present in many conditions, its absence may suggest that the esophagus is not obstructed, which can be a feature of early-stage Esophageal squamous cell carcinoma.</t>
+          <t>Aspiration is not present, which does not strongly support esophageal squamous cell carcinoma, as aspiration can occur in various conditions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of cough may indicate that there is no significant obstruction or irritation in the esophagus, which is often present in cases of Esophageal squamous cell carcinoma.</t>
+          <t>Aspiration can occur in esophageal cancer due to obstruction, so its absence may argue against significant esophageal obstruction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice may indicate that there is no invasion of surrounding structures, which can be a favorable sign in early detection of Esophageal squamous cell carcinoma.</t>
+          <t>The absence of interstitial lung disease does not directly support esophageal squamous cell carcinoma, as ILD is not typically associated with this cancer.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain may suggest that there is no significant local invasion or irritation, which is often seen in Esophageal squamous cell carcinoma.</t>
+          <t>The absence of a strong positive ANA does not provide evidence for or against esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Neck masses or fullness observed is absent.</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of neck masses may suggest that the cancer has not metastasized to lymph nodes, which is a positive sign in the context of Esophageal squamous cell carcinoma.</t>
+          <t>The absence of a widened mediastinum does not support esophageal squamous cell carcinoma, as this finding is more indicative of other conditions.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of weakness may indicate that the patient is not experiencing systemic effects of cancer, which can be common in advanced cases of Esophageal squamous cell carcinoma.</t>
+          <t>Hyperlipidemia is not associated with esophageal squamous cell carcinoma, so its presence does not support the diagnosis.</t>
         </is>
       </c>
     </row>
